--- a/Modelos em Python/resultados_teste_combined.xlsx
+++ b/Modelos em Python/resultados_teste_combined.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.72638144240475</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D6" t="n">
-        <v>1.885254144668579</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4981060031339273</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.91808912497552</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D7" t="n">
-        <v>1.848340749740601</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.91808912497552</v>
+        <v>17.50432866830874</v>
       </c>
       <c r="D8" t="n">
-        <v>1.848340749740601</v>
+        <v>1.729891538619995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4621649296437191</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.34316538700041</v>
+        <v>16.18707368870125</v>
       </c>
       <c r="D9" t="n">
-        <v>1.821823358535767</v>
+        <v>1.651485681533813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4831896565971898</v>
+        <v>0.4448555814162515</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.72638144240475</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D10" t="n">
-        <v>1.885254144668579</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4981060031339273</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.91808912497552</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D11" t="n">
-        <v>1.848340749740601</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4646118365285654</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.91808912497552</v>
+        <v>17.50432866830874</v>
       </c>
       <c r="D12" t="n">
-        <v>1.848340749740601</v>
+        <v>1.729891538619995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4621649296437191</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.34316538700041</v>
+        <v>16.18707368870125</v>
       </c>
       <c r="D13" t="n">
-        <v>1.821823358535767</v>
+        <v>1.651485681533813</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4831896565971898</v>
+        <v>0.4448555814162515</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20.38265589895019</v>
+        <v>22.17046320725271</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7672444679606929</v>
+        <v>0.8524532550660653</v>
       </c>
       <c r="E14" t="n">
-        <v>1.267151397846634</v>
+        <v>1.390475261597858</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>43.39275398576498</v>
+        <v>47.00939592555671</v>
       </c>
       <c r="D15" t="n">
-        <v>1.921219520782458</v>
+        <v>2.137285076338278</v>
       </c>
       <c r="E15" t="n">
-        <v>3.249034203920165</v>
+        <v>3.582141306733691</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>43.96010017597122</v>
+        <v>47.91559112787208</v>
       </c>
       <c r="D16" t="n">
-        <v>1.956068949337035</v>
+        <v>2.194927720974125</v>
       </c>
       <c r="E16" t="n">
-        <v>3.315812643224894</v>
+        <v>3.68480196128</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>43.17530325208476</v>
+        <v>47.60562476080082</v>
       </c>
       <c r="D17" t="n">
-        <v>1.910150647764313</v>
+        <v>2.17583668654877</v>
       </c>
       <c r="E17" t="n">
-        <v>3.245616048024202</v>
+        <v>3.655725765981864</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.56403777700401</v>
+        <v>22.30258925419826</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9193928993562339</v>
+        <v>0.8598711378270055</v>
       </c>
       <c r="E18" t="n">
-        <v>1.489659916769473</v>
+        <v>1.396735944284242</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.22879705034472</v>
+        <v>53.84416289457553</v>
       </c>
       <c r="D19" t="n">
-        <v>2.735980142527985</v>
+        <v>2.573863027201013</v>
       </c>
       <c r="E19" t="n">
-        <v>4.509816440116129</v>
+        <v>4.256845125688991</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60.01701406616016</v>
+        <v>55.84890484596261</v>
       </c>
       <c r="D20" t="n">
-        <v>3.008930829250701</v>
+        <v>2.713717922763904</v>
       </c>
       <c r="E20" t="n">
-        <v>4.957418732083681</v>
+        <v>4.496512744209008</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64.98801247239285</v>
+        <v>55.92532321540457</v>
       </c>
       <c r="D21" t="n">
-        <v>3.386357594867476</v>
+        <v>2.719167031227284</v>
       </c>
       <c r="E21" t="n">
-        <v>5.55720890139755</v>
+        <v>4.505982851628292</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15.69424054216561</v>
+        <v>15.78022998294472</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5358356525967369</v>
+        <v>0.5387977719170888</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3353185564083832</v>
+        <v>0.3343780535035782</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>73.29207927629001</v>
+        <v>72.62579798635416</v>
       </c>
       <c r="D23" t="n">
-        <v>4.084346875267744</v>
+        <v>4.025062536352007</v>
       </c>
       <c r="E23" t="n">
-        <v>1.437048145019796</v>
+        <v>1.419332130834793</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>93.70605356839712</v>
+        <v>92.71103569955159</v>
       </c>
       <c r="D24" t="n">
-        <v>6.261252463748297</v>
+        <v>6.135867001723717</v>
       </c>
       <c r="E24" t="n">
-        <v>2.092192733895459</v>
+        <v>2.054198053528142</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>101.8617731762936</v>
+        <v>100.4665128245579</v>
       </c>
       <c r="D25" t="n">
-        <v>7.384740048756907</v>
+        <v>7.179425597565015</v>
       </c>
       <c r="E25" t="n">
-        <v>2.432537008970626</v>
+        <v>2.370108734382464</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="D46" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
